--- a/ProcessedData/conf_rbf_SVM_video_3.xlsx
+++ b/ProcessedData/conf_rbf_SVM_video_3.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5723717159522727</v>
+        <v>0.3211888761803499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5149803857912852</v>
+        <v>0.3404336439373809</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5058883580603845</v>
+        <v>0.3383774798822691</v>
       </c>
       <c r="E3" t="n">
         <v>19</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6265791654830013</v>
+        <v>0.382331113446201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5887317767001272</v>
+        <v>0.3215116800421909</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.486344416682271</v>
+        <v>0.2961572065116082</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5722294146448474</v>
+        <v>0.3245842349985534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5216741167862325</v>
+        <v>0.3406283910883972</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4990523257580118</v>
+        <v>0.3347873739130492</v>
       </c>
       <c r="E5" t="n">
         <v>19</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5741047337820409</v>
+        <v>0.3226871640242681</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5166715735408983</v>
+        <v>0.3398563527230172</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5059301881405395</v>
+        <v>0.3374564832527145</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5723672052142409</v>
+        <v>0.3211997890694922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5150047277232632</v>
+        <v>0.340435701894365</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5058595053903746</v>
+        <v>0.3383645090361426</v>
       </c>
       <c r="E7" t="n">
         <v>19</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5683863396761611</v>
+        <v>0.3213786087626506</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5181610529829596</v>
+        <v>0.3419046679139605</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4987223145925986</v>
+        <v>0.3367167233233889</v>
       </c>
       <c r="E8" t="n">
         <v>19</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.668606516593265</v>
+        <v>0.4185868523632226</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6199678370580318</v>
+        <v>0.3045801496476918</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4971357074346301</v>
+        <v>0.2768329979890856</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5782818280510579</v>
+        <v>0.3264112131437794</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5209141790103066</v>
+        <v>0.3384552348353857</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5058646769401483</v>
+        <v>0.3351335520208348</v>
       </c>
       <c r="E10" t="n">
         <v>19</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.575964966427668</v>
+        <v>0.3281720578163302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5259457959544397</v>
+        <v>0.33939346720257</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4985161983726252</v>
+        <v>0.3324344749810997</v>
       </c>
       <c r="E11" t="n">
         <v>19</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5921431209482639</v>
+        <v>0.3478040688609384</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5514595486178591</v>
+        <v>0.3340729181127671</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4891806002298018</v>
+        <v>0.3181230130262943</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6887762272746667</v>
+        <v>0.4351456096732628</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6326981014298645</v>
+        <v>0.296076232250769</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.504575153744199</v>
+        <v>0.2687781580759684</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5714618549916444</v>
+        <v>0.3217910419146568</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5167889914264037</v>
+        <v>0.3407903830432043</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5031698914646376</v>
+        <v>0.3374185750421387</v>
       </c>
       <c r="E14" t="n">
         <v>19</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5532661453110992</v>
+        <v>0.3209422289592808</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5283866009829798</v>
+        <v>0.3475810187891296</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4733765722275164</v>
+        <v>0.3314767522515896</v>
       </c>
       <c r="E15" t="n">
         <v>19</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5725050056598565</v>
+        <v>0.3212852163501097</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5150742201202049</v>
+        <v>0.3403886505061675</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5059278134390485</v>
+        <v>0.3383261331437228</v>
       </c>
       <c r="E16" t="n">
         <v>19</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E17" t="n">
         <v>19</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5724144583920817</v>
+        <v>0.3212042183899186</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309492049</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5059311960726389</v>
+        <v>0.3383771506608766</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5723726316100136</v>
+        <v>0.3213233436756508</v>
       </c>
       <c r="C19" t="n">
-        <v>0.51524081996701</v>
+        <v>0.3404384096014964</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5056288395424006</v>
+        <v>0.3382382467228527</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.614392139110066</v>
+        <v>0.340698433921827</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5228457667212275</v>
+        <v>0.3254059615733824</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.5400434002899932</v>
+        <v>0.3338956045047902</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6217632455714075</v>
+        <v>0.3497830290185914</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5340797984420524</v>
+        <v>0.3226286063704208</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.5361804750287521</v>
+        <v>0.3275883646109876</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5724335189935582</v>
+        <v>0.3212209032730773</v>
       </c>
       <c r="C22" t="n">
-        <v>0.514999356232572</v>
+        <v>0.3404123069250442</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.5059311906603832</v>
+        <v>0.3383667898018786</v>
       </c>
       <c r="E22" t="n">
         <v>19</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042182849044</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5149802900127822</v>
+        <v>0.3404186309441048</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5059311962818208</v>
+        <v>0.3383771507709906</v>
       </c>
       <c r="E23" t="n">
         <v>20</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4922212148936951</v>
+        <v>0.2231848483664493</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3763238657198682</v>
+        <v>0.3759480098578828</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.5643934663987056</v>
+        <v>0.4008671417756677</v>
       </c>
       <c r="E24" t="n">
         <v>20</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5704451497528615</v>
+        <v>0.3195894395040688</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5132147299276602</v>
+        <v>0.3410739728129394</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.5057274477245983</v>
+        <v>0.3393365876829917</v>
       </c>
       <c r="E25" t="n">
         <v>20</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5652450064696598</v>
+        <v>0.3037544986647828</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4855571908486848</v>
+        <v>0.3424672935179185</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.5281847911616054</v>
+        <v>0.3537782078172986</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5723840596156238</v>
+        <v>0.3021500730592744</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4825738078294875</v>
+        <v>0.3425504048567337</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.5383072793593157</v>
+        <v>0.3552995220839919</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1583258615777594</v>
+        <v>0.08377569994824542</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09785739339634941</v>
+        <v>0.4628033017947051</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.5066721845149567</v>
+        <v>0.4534209982570497</v>
       </c>
       <c r="E28" t="n">
         <v>20</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5724144583848634</v>
+        <v>0.3204178436438597</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5134535451329065</v>
+        <v>0.340389685074191</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.5074579411513539</v>
+        <v>0.3391924712819492</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183645331</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5149802901673725</v>
+        <v>0.3404186309471078</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.5059311961272306</v>
+        <v>0.3383771506883592</v>
       </c>
       <c r="E30" t="n">
         <v>20</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.486671865796268</v>
+        <v>0.2147553249805005</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3572507752566508</v>
+        <v>0.3781029756660987</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.577909979070908</v>
+        <v>0.4071416993534005</v>
       </c>
       <c r="E31" t="n">
         <v>20</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5691715402958378</v>
+        <v>0.3069874539117806</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4893881481294497</v>
+        <v>0.3411940115853749</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5282803782638168</v>
+        <v>0.3518185345028445</v>
       </c>
       <c r="E32" t="n">
         <v>20</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5720669842323101</v>
+        <v>0.3183298829873887</v>
       </c>
       <c r="C33" t="n">
-        <v>0.509637646413607</v>
+        <v>0.340444244018939</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.5109263227070072</v>
+        <v>0.3412258729936722</v>
       </c>
       <c r="E33" t="n">
         <v>20</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5724165962750685</v>
+        <v>0.3212060894858594</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5149824281627688</v>
+        <v>0.3404179216397893</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.5059311960116966</v>
+        <v>0.3383759888743511</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5614035927347644</v>
+        <v>0.2935898962382738</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4735358178275373</v>
+        <v>0.3466040227510394</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.5363641293688048</v>
+        <v>0.3598060810106867</v>
       </c>
       <c r="E35" t="n">
         <v>20</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5620262034186835</v>
+        <v>0.3210485461113839</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5220916338292868</v>
+        <v>0.3442555863075148</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.4884315974887936</v>
+        <v>0.3346958675811013</v>
       </c>
       <c r="E36" t="n">
         <v>20</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5548073665666352</v>
+        <v>0.2503407928942606</v>
       </c>
       <c r="C37" t="n">
-        <v>0.399238511589768</v>
+        <v>0.3563675335163027</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.6039705242326235</v>
+        <v>0.3932916735894366</v>
       </c>
       <c r="E37" t="n">
         <v>20</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3369697742188167</v>
+        <v>0.1381363889780277</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2269473040952302</v>
+        <v>0.4267292904381203</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.5947343199197721</v>
+        <v>0.4351343205838519</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5708305803478535</v>
+        <v>0.3066548303149124</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4876444580880372</v>
+        <v>0.3406312583957842</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.5316831055112138</v>
+        <v>0.3527139112893031</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4498732494715103</v>
+        <v>0.1541969842546143</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2061556691026316</v>
+        <v>0.4051901684065268</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.6921456998896887</v>
+        <v>0.4406128473388589</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.570748547483247</v>
+        <v>0.3182618838320462</v>
       </c>
       <c r="C41" t="n">
-        <v>0.51041592157881</v>
+        <v>0.3409157673312777</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.5088296510527177</v>
+        <v>0.3408223488366761</v>
       </c>
       <c r="E41" t="n">
         <v>20</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3204354378946965</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5134877065432034</v>
+        <v>0.3403903172282656</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.5074237797513996</v>
+        <v>0.3391742448770377</v>
       </c>
       <c r="E42" t="n">
         <v>20</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E44" t="n">
         <v>20</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183907709</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5149802902183102</v>
+        <v>0.3404186309480973</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.5059311960762929</v>
+        <v>0.338377150661132</v>
       </c>
       <c r="E45" t="n">
         <v>20</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5722940683987916</v>
+        <v>0.3207339522647586</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5141512539110963</v>
+        <v>0.3404449479484949</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.5066398423870923</v>
+        <v>0.3388210997867462</v>
       </c>
       <c r="E46" t="n">
         <v>20</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4658880554621792</v>
+        <v>0.1519554231829132</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1854923866992253</v>
+        <v>0.403924687509938</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.7246507530374054</v>
+        <v>0.4441198893071489</v>
       </c>
       <c r="E47" t="n">
         <v>20</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.557678808525277</v>
+        <v>0.2545733280334564</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4058313617996882</v>
+        <v>0.3547614197828112</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.6001880900137625</v>
+        <v>0.3906652521837322</v>
       </c>
       <c r="E48" t="n">
         <v>20</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5527957339268182</v>
+        <v>0.2864071083219846</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4654566135387422</v>
+        <v>0.3498512839025503</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.5357748484410847</v>
+        <v>0.3637416077754649</v>
       </c>
       <c r="E49" t="n">
         <v>20</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5612861037859316</v>
+        <v>0.3039456080393024</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4885609610389132</v>
+        <v>0.3438022089826452</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.5212221706464152</v>
+        <v>0.3522521829780524</v>
       </c>
       <c r="E50" t="n">
         <v>20</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5577581872799262</v>
+        <v>0.2883236189828334</v>
       </c>
       <c r="C51" t="n">
-        <v>0.466281537860155</v>
+        <v>0.3482970956264479</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.5391484030989275</v>
+        <v>0.3633792853907188</v>
       </c>
       <c r="E51" t="n">
         <v>20</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4896790041140309</v>
+        <v>0.2493120514663134</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4302038218321123</v>
+        <v>0.3708807847019552</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.5079722042207728</v>
+        <v>0.3798071638317311</v>
       </c>
       <c r="E52" t="n">
         <v>20</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4943766323881313</v>
+        <v>0.1781880763550082</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2566251988666824</v>
+        <v>0.3916073243070577</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.7771206450950936</v>
+        <v>0.4302045993379338</v>
       </c>
       <c r="E53" t="n">
         <v>20</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5701779771234395</v>
+        <v>0.3139274500585621</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5023453306818055</v>
+        <v>0.3409864517684275</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.5163296743410308</v>
+        <v>0.3450860981730104</v>
       </c>
       <c r="E54" t="n">
         <v>20</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183748753</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5149802901874508</v>
+        <v>0.3404186309474979</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.5059311961071522</v>
+        <v>0.3383771506776268</v>
       </c>
       <c r="E55" t="n">
         <v>20</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5724093123467516</v>
+        <v>0.3107312063376007</v>
       </c>
       <c r="C56" t="n">
-        <v>0.49460255017183</v>
+        <v>0.3401465899661934</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5263037900743186</v>
+        <v>0.3491222036962059</v>
       </c>
       <c r="E56" t="n">
         <v>20</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5697648956105603</v>
+        <v>0.2583029741314811</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4070167137975051</v>
+        <v>0.3512257946610877</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.6112452096375138</v>
+        <v>0.3904712312074313</v>
       </c>
       <c r="E57" t="n">
         <v>20</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E58" t="n">
         <v>20</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E59" t="n">
         <v>20</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5647737783710036</v>
+        <v>0.3201474991705551</v>
       </c>
       <c r="C60" t="n">
-        <v>0.518321922390854</v>
+        <v>0.3431793116545576</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.4949488838795466</v>
+        <v>0.3366731891748872</v>
       </c>
       <c r="E60" t="n">
         <v>20</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E61" t="n">
         <v>20</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5724184905188262</v>
+        <v>0.3212077472938953</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5149843223424598</v>
+        <v>0.3404172931589932</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383749595471115</v>
       </c>
       <c r="E62" t="n">
         <v>20</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5721819873122331</v>
+        <v>0.3153188281218467</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5037015486868928</v>
+        <v>0.3403174803120061</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.5169774665226625</v>
+        <v>0.3443636915661472</v>
       </c>
       <c r="E63" t="n">
         <v>21</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5574930119316838</v>
+        <v>0.3165885031211825</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5164908937965612</v>
+        <v>0.3456706381928852</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.4894991460345189</v>
+        <v>0.3377408586859322</v>
       </c>
       <c r="E64" t="n">
         <v>21</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.716085682713017</v>
+        <v>0.3567993758353637</v>
       </c>
       <c r="C65" t="n">
-        <v>0.502272793783912</v>
+        <v>0.2962060782790152</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.6665676288926535</v>
+        <v>0.346994545885621</v>
       </c>
       <c r="E65" t="n">
         <v>21</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6216540813615881</v>
+        <v>0.2771666451179483</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4172728538754908</v>
+        <v>0.3348672611631368</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.6442661567842047</v>
+        <v>0.3879660937189145</v>
       </c>
       <c r="E66" t="n">
         <v>21</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5660736893105592</v>
+        <v>0.2342241727115894</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3623155984222651</v>
+        <v>0.3580566214203231</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.6522598836625436</v>
+        <v>0.4077192058680875</v>
       </c>
       <c r="E67" t="n">
         <v>21</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.877857241132378</v>
+        <v>0.5945906562130339</v>
       </c>
       <c r="C68" t="n">
-        <v>0.772954441196567</v>
+        <v>0.2250734284044434</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.7887574997491922</v>
+        <v>0.1803359153825227</v>
       </c>
       <c r="E68" t="n">
         <v>21</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7385388211287027</v>
+        <v>0.52247818294225</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7518638743802597</v>
+        <v>0.2765685793784028</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.4057568803826508</v>
+        <v>0.2009532376793471</v>
       </c>
       <c r="E69" t="n">
         <v>21</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3009979870635316</v>
+        <v>0.1289335831363209</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2179722101408257</v>
+        <v>0.431531054484999</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.5071078084084065</v>
+        <v>0.43953536237868</v>
       </c>
       <c r="E70" t="n">
         <v>21</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.655287531198214</v>
+        <v>0.371377402138083</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5490457470357054</v>
+        <v>0.3096824321491163</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.5547388120619527</v>
+        <v>0.3189401657128007</v>
       </c>
       <c r="E71" t="n">
         <v>21</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5272968263143422</v>
+        <v>0.1800770883071523</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2443518848784687</v>
+        <v>0.3822850821717629</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.7314420296801041</v>
+        <v>0.437637829521085</v>
       </c>
       <c r="E72" t="n">
         <v>21</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042176091864</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5149802887009511</v>
+        <v>0.3404186309186223</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.5059311975936519</v>
+        <v>0.3383771514721911</v>
       </c>
       <c r="E73" t="n">
         <v>21</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4993362301544125</v>
+        <v>0.1977191725296837</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3094916623757319</v>
+        <v>0.3807395258211661</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.6383421623130529</v>
+        <v>0.42154130164915</v>
       </c>
       <c r="E74" t="n">
         <v>21</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5484588461452213</v>
+        <v>0.1924171846222032</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2684579945345859</v>
+        <v>0.3738179478230561</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.7285253479538182</v>
+        <v>0.4337648675547406</v>
       </c>
       <c r="E75" t="n">
         <v>21</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7366638399778687</v>
+        <v>0.4484456733672122</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6257398003619521</v>
+        <v>0.2795876414020054</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.5616772610213286</v>
+        <v>0.2719666852307822</v>
       </c>
       <c r="E76" t="n">
         <v>21</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.554176900327538</v>
+        <v>0.3148384073254393</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5153754088157845</v>
+        <v>0.3467850523925881</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.4872985194111348</v>
+        <v>0.3383765402819724</v>
       </c>
       <c r="E77" t="n">
         <v>21</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6324499565962023</v>
+        <v>0.2990451061965719</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4491237035558847</v>
+        <v>0.3278870842513503</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.6318232809397144</v>
+        <v>0.3730678095520777</v>
       </c>
       <c r="E78" t="n">
         <v>21</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6865584751177513</v>
+        <v>0.3863621360582872</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5587668008806238</v>
+        <v>0.3004612054881996</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.5770639982808972</v>
+        <v>0.313176658453513</v>
       </c>
       <c r="E79" t="n">
         <v>21</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5885175837485932</v>
+        <v>0.3177936576965358</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4976423854941893</v>
+        <v>0.3346690999872256</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.5393722261538008</v>
+        <v>0.3475372423162387</v>
       </c>
       <c r="E80" t="n">
         <v>21</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6611517344574191</v>
+        <v>0.3127784537896974</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4588087501384736</v>
+        <v>0.3181211062134594</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.6514149788008605</v>
+        <v>0.369100439996843</v>
       </c>
       <c r="E81" t="n">
         <v>21</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5402680662892486</v>
+        <v>0.1731817851397514</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2140669464346184</v>
+        <v>0.3829811721207847</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.774698919357528</v>
+        <v>0.4438370427394636</v>
       </c>
       <c r="E82" t="n">
         <v>21</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6594757866263058</v>
+        <v>0.3744944764094695</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5515136121530888</v>
+        <v>0.3080106134729445</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.556459202372614</v>
+        <v>0.317494910117586</v>
       </c>
       <c r="E83" t="n">
         <v>21</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6245363779341659</v>
+        <v>0.2925040008291322</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4418330998829098</v>
+        <v>0.3311172129479236</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.6312003061640765</v>
+        <v>0.3763787862229442</v>
       </c>
       <c r="E84" t="n">
         <v>21</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5788238164896438</v>
+        <v>0.3034687152881713</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4815442793564701</v>
+        <v>0.3407108326776853</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.5468099757110388</v>
+        <v>0.3558204520341433</v>
       </c>
       <c r="E85" t="n">
         <v>21</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6280820921152467</v>
+        <v>0.2329083110069261</v>
       </c>
       <c r="C86" t="n">
-        <v>0.331557231990722</v>
+        <v>0.3454787755957175</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.745021888038981</v>
+        <v>0.4216129133973565</v>
       </c>
       <c r="E86" t="n">
         <v>21</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6578216887946506</v>
+        <v>0.3612976060416281</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5349631750440967</v>
+        <v>0.3115853666414748</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.5713555416499508</v>
+        <v>0.3271170273168972</v>
       </c>
       <c r="E87" t="n">
         <v>21</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5984121406332453</v>
+        <v>0.3099124527427646</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4825872994684421</v>
+        <v>0.3346336609155162</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.5643218690639912</v>
+        <v>0.3554538863417191</v>
       </c>
       <c r="E88" t="n">
         <v>21</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7728975098934524</v>
+        <v>0.4178972288142428</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5644368414583055</v>
+        <v>0.27164834895182</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.6605717879097928</v>
+        <v>0.3104544222339373</v>
       </c>
       <c r="E89" t="n">
         <v>21</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6892095272753317</v>
+        <v>0.3757591823685669</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5416827692450915</v>
+        <v>0.3008350065656704</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.5960237859296371</v>
+        <v>0.3234058110657628</v>
       </c>
       <c r="E90" t="n">
         <v>22</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5956967199039181</v>
+        <v>0.3421410768256481</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5382434109239268</v>
+        <v>0.3324151672897262</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.5059503368793883</v>
+        <v>0.3254437558846255</v>
       </c>
       <c r="E91" t="n">
         <v>22</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6404071055729954</v>
+        <v>0.3795923441115657</v>
       </c>
       <c r="C92" t="n">
-        <v>0.573198155197117</v>
+        <v>0.3154939225230042</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.5157059782752752</v>
+        <v>0.3049137333654302</v>
       </c>
       <c r="E92" t="n">
         <v>22</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5890122370760921</v>
+        <v>0.3369631431649303</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5333442872338524</v>
+        <v>0.3348029071573981</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5041729155432918</v>
+        <v>0.3282339496776714</v>
       </c>
       <c r="E93" t="n">
         <v>22</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7009970648211317</v>
+        <v>0.4036922935669437</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5774545676512983</v>
+        <v>0.2944044435117447</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5720395250692303</v>
+        <v>0.3019032629213115</v>
       </c>
       <c r="E94" t="n">
         <v>22</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.7801070056663627</v>
+        <v>0.5588197515016897</v>
       </c>
       <c r="C95" t="n">
-        <v>0.787064790647181</v>
+        <v>0.2594460469314219</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.3633504519833857</v>
+        <v>0.1817342015668885</v>
       </c>
       <c r="E95" t="n">
         <v>22</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5925686273920294</v>
+        <v>0.2333295866122956</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3467229317188191</v>
+        <v>0.355732419147758</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.7994021440528314</v>
+        <v>0.4109379942399464</v>
       </c>
       <c r="E96" t="n">
         <v>22</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6789418572413288</v>
+        <v>0.3996317929838365</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5798824326943269</v>
+        <v>0.2998041358003846</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5475564524463988</v>
+        <v>0.3005640712157787</v>
       </c>
       <c r="E97" t="n">
         <v>22</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6264466465767312</v>
+        <v>0.3957428025847518</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6077422707921123</v>
+        <v>0.319482315059715</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.48639176577787</v>
+        <v>0.284774882355533</v>
       </c>
       <c r="E98" t="n">
         <v>22</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6246783002164682</v>
+        <v>0.3039401657388842</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4605370553150933</v>
+        <v>0.328894564042269</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.6126382728007718</v>
+        <v>0.3671652702188468</v>
       </c>
       <c r="E99" t="n">
         <v>22</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6253116140230244</v>
+        <v>0.2568604992154178</v>
       </c>
       <c r="C100" t="n">
-        <v>0.379519024748989</v>
+        <v>0.3392293960370892</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.694294003186211</v>
+        <v>0.4039101047474929</v>
       </c>
       <c r="E100" t="n">
         <v>22</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5724067348885223</v>
+        <v>0.321209417232869</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5149957828522316</v>
+        <v>0.3404216445820099</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5059079799356877</v>
+        <v>0.3383689381851211</v>
       </c>
       <c r="E101" t="n">
         <v>22</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5743326136546892</v>
+        <v>0.298965302725409</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4761949288473024</v>
+        <v>0.3425033978496281</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.5466347127067838</v>
+        <v>0.3585312994249629</v>
       </c>
       <c r="E102" t="n">
         <v>22</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6541743465663631</v>
+        <v>0.3391963080284667</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5027964621981347</v>
+        <v>0.3154568249729676</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.5998749122676255</v>
+        <v>0.3453468669985655</v>
       </c>
       <c r="E103" t="n">
         <v>22</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6002887184521831</v>
+        <v>0.2640229858093826</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4034463076505621</v>
+        <v>0.3430253745781983</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.645339438701018</v>
+        <v>0.3929516396124192</v>
       </c>
       <c r="E104" t="n">
         <v>22</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5222010512365258</v>
+        <v>0.1530999276446784</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1469846548063265</v>
+        <v>0.3953880418501651</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.822846464630296</v>
+        <v>0.4515120305051565</v>
       </c>
       <c r="E105" t="n">
         <v>22</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5647095896955662</v>
+        <v>0.2593035446888655</v>
       </c>
       <c r="C106" t="n">
-        <v>0.411301780369954</v>
+        <v>0.3519658616969811</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.5954650567002729</v>
+        <v>0.3887305936141534</v>
       </c>
       <c r="E106" t="n">
         <v>22</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6215550564964697</v>
+        <v>0.2822539557590721</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4259200385475146</v>
+        <v>0.3340273544858122</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.6462647116309107</v>
+        <v>0.3837186897551156</v>
       </c>
       <c r="E107" t="n">
         <v>22</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6092050996124221</v>
+        <v>0.2985847062460019</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4587989977636141</v>
+        <v>0.3337325612394212</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.5989031297482394</v>
+        <v>0.3676827325145767</v>
       </c>
       <c r="E108" t="n">
         <v>22</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6979750604608193</v>
+        <v>0.4139350345477614</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5944957109448319</v>
+        <v>0.2946016762784496</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.5572987020051855</v>
+        <v>0.2914632891737887</v>
       </c>
       <c r="E109" t="n">
         <v>22</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6135153117140242</v>
+        <v>0.3442159555378043</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5297031890277646</v>
+        <v>0.3257102876195898</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.5323091505856565</v>
+        <v>0.3300737568426059</v>
       </c>
       <c r="E110" t="n">
         <v>22</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7092441566110934</v>
+        <v>0.4898855099344745</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7137878718719507</v>
+        <v>0.2867890357588661</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.3412035277579329</v>
+        <v>0.2233254543066595</v>
       </c>
       <c r="E111" t="n">
         <v>22</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.616230451255978</v>
+        <v>0.3335630660223429</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5089600248281694</v>
+        <v>0.3248767299320955</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.5557674543272055</v>
+        <v>0.3415602040455616</v>
       </c>
       <c r="E112" t="n">
         <v>22</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5819570699604431</v>
+        <v>0.2315143745239069</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3493478493919839</v>
+        <v>0.3554605498931327</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.6790995025785477</v>
+        <v>0.4130250755829604</v>
       </c>
       <c r="E113" t="n">
         <v>22</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5726695639873829</v>
+        <v>0.3191763947998731</v>
       </c>
       <c r="C114" t="n">
-        <v>0.510866507382195</v>
+        <v>0.3402549724325249</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.5103000845045849</v>
+        <v>0.340568632767602</v>
       </c>
       <c r="E114" t="n">
         <v>22</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5983776391570469</v>
+        <v>0.3394375325076433</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5313497078698137</v>
+        <v>0.331318234926597</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.5155249591866301</v>
+        <v>0.3292442325657597</v>
       </c>
       <c r="E115" t="n">
         <v>22</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5724144591659319</v>
+        <v>0.3212015781569706</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5149751639585916</v>
+        <v>0.3404185311071316</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.5059363231067373</v>
+        <v>0.3383798907358975</v>
       </c>
       <c r="E116" t="n">
         <v>22</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4932731028779326</v>
+        <v>0.2411152572351594</v>
       </c>
       <c r="C117" t="n">
-        <v>0.412270548396645</v>
+        <v>0.3718229756891997</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.5347018327439487</v>
+        <v>0.3870617670756407</v>
       </c>
       <c r="E117" t="n">
         <v>22</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5970130111998383</v>
+        <v>0.247919344214532</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3750593643924922</v>
+        <v>0.3477871101771317</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.6704506747067429</v>
+        <v>0.4042935456083364</v>
       </c>
       <c r="E118" t="n">
         <v>22</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5954403927237285</v>
+        <v>0.3381055094465305</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5308213842461301</v>
+        <v>0.3320347720332982</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.5001147538684707</v>
+        <v>0.3298597185201712</v>
       </c>
       <c r="E119" t="n">
         <v>22</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.476620140552763</v>
+        <v>0.1911657242335275</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3052734151553302</v>
+        <v>0.3867985505063865</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.6198437529401206</v>
+        <v>0.4220357252600857</v>
       </c>
       <c r="E120" t="n">
         <v>22</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7256588836944691</v>
+        <v>0.5024348115237401</v>
       </c>
       <c r="C121" t="n">
-        <v>0.723972874778041</v>
+        <v>0.2816815095331953</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.4350173340749861</v>
+        <v>0.2158836789430645</v>
       </c>
       <c r="E121" t="n">
         <v>23</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4961707206691848</v>
+        <v>0.2567170170417504</v>
       </c>
       <c r="C122" t="n">
-        <v>0.440928285458989</v>
+        <v>0.3681409594711778</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.5037394631095927</v>
+        <v>0.3751420234870719</v>
       </c>
       <c r="E122" t="n">
         <v>23</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5724136724885006</v>
+        <v>0.3212020391369132</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5149766088519361</v>
+        <v>0.3404188354540876</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.5059340915359614</v>
+        <v>0.3383791254089991</v>
       </c>
       <c r="E123" t="n">
         <v>23</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.6413791482268008</v>
+        <v>0.3836897530584191</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5796567321650822</v>
+        <v>0.3151850064009387</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.5102194439612198</v>
+        <v>0.3011252405406424</v>
       </c>
       <c r="E124" t="n">
         <v>23</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8698362919033482</v>
+        <v>0.6444686460158646</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8920482272421502</v>
+        <v>0.22408854196343</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.4528953242831947</v>
+        <v>0.1314428120207055</v>
       </c>
       <c r="E125" t="n">
         <v>23</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5723923100202691</v>
+        <v>0.3211964931479948</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5149807762256359</v>
+        <v>0.3404264189631025</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.5059085616940302</v>
+        <v>0.3383770878889027</v>
       </c>
       <c r="E126" t="n">
         <v>23</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5735968384376405</v>
+        <v>0.3214366762433205</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5146058906168188</v>
+        <v>0.3399962455301571</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.5074879757201208</v>
+        <v>0.3385670782265225</v>
       </c>
       <c r="E127" t="n">
         <v>23</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5825874099777821</v>
+        <v>0.3302187440670065</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5251532439340935</v>
+        <v>0.3369895788048251</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.5059311939430857</v>
+        <v>0.3327916771281685</v>
       </c>
       <c r="E128" t="n">
         <v>23</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5724121344745402</v>
+        <v>0.3212117430068291</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5149965231211849</v>
+        <v>0.3404197625547308</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.5059126392527522</v>
+        <v>0.33836849443844</v>
       </c>
       <c r="E129" t="n">
         <v>23</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5724144584016662</v>
+        <v>0.3212042183957606</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5149802902234811</v>
+        <v>0.3404186309459289</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.5059311960775821</v>
+        <v>0.3383771506583104</v>
       </c>
       <c r="E130" t="n">
         <v>23</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5763786867046643</v>
+        <v>0.3483827648615082</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5584691294365706</v>
+        <v>0.3371130945090253</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.4662975192700581</v>
+        <v>0.3145041406294667</v>
       </c>
       <c r="E131" t="n">
         <v>23</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6020468980086182</v>
+        <v>0.3415891249897343</v>
       </c>
       <c r="C132" t="n">
-        <v>0.532755109741652</v>
+        <v>0.3299760242033752</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.5177905564247379</v>
+        <v>0.3284348508068903</v>
       </c>
       <c r="E132" t="n">
         <v>23</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5724144635772346</v>
+        <v>0.3212042229263171</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5149802954008682</v>
+        <v>0.3404186292288108</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771478448722</v>
       </c>
       <c r="E133" t="n">
         <v>23</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5724109850647664</v>
+        <v>0.32118069133502</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5149370428568072</v>
+        <v>0.3404190111832641</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.5059709701073561</v>
+        <v>0.3384002974817161</v>
       </c>
       <c r="E134" t="n">
         <v>23</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5734713775528467</v>
+        <v>0.3113071050527952</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4950238573067351</v>
+        <v>0.3397909558090091</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.5269441117362174</v>
+        <v>0.3489019391381957</v>
       </c>
       <c r="E135" t="n">
         <v>23</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6650742739974069</v>
+        <v>0.3878581129067982</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5699028242139842</v>
+        <v>0.3055309693677172</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.5436335528797132</v>
+        <v>0.3066109177254845</v>
       </c>
       <c r="E136" t="n">
         <v>23</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5836908113204105</v>
+        <v>0.3292065854083691</v>
       </c>
       <c r="C137" t="n">
-        <v>0.522456361487917</v>
+        <v>0.3365449634398361</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.5097314777318903</v>
+        <v>0.3342484511517949</v>
       </c>
       <c r="E137" t="n">
         <v>23</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5496502103382154</v>
+        <v>0.3128215740181026</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5145822716418923</v>
+        <v>0.3483183776990329</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.48356496659572</v>
+        <v>0.3388600482828646</v>
       </c>
       <c r="E138" t="n">
         <v>23</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.57252934530309</v>
+        <v>0.3212101245484937</v>
       </c>
       <c r="C139" t="n">
-        <v>0.514911456265167</v>
+        <v>0.3403769498674302</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.5061149169372718</v>
+        <v>0.338412925584076</v>
       </c>
       <c r="E139" t="n">
         <v>23</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5092116304462201</v>
+        <v>0.3011572615561626</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5154761601343574</v>
+        <v>0.3596408317635148</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.4422324982112588</v>
+        <v>0.3392019066803225</v>
       </c>
       <c r="E140" t="n">
         <v>23</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5637260059793059</v>
+        <v>0.2957763363083468</v>
       </c>
       <c r="C141" t="n">
-        <v>0.476111960318773</v>
+        <v>0.3456925118021411</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.5361110735696304</v>
+        <v>0.3585311518895125</v>
       </c>
       <c r="E141" t="n">
         <v>23</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6714777518328461</v>
+        <v>0.4138246837160136</v>
       </c>
       <c r="C142" t="n">
-        <v>0.609225621950146</v>
+        <v>0.3030738194247679</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.5115059314949389</v>
+        <v>0.2831014968592187</v>
       </c>
       <c r="E142" t="n">
         <v>23</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7724354254370552</v>
+        <v>0.5548604640001261</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7866701717294012</v>
+        <v>0.2634896122884222</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.4342632033257831</v>
+        <v>0.1816499237114516</v>
       </c>
       <c r="E143" t="n">
         <v>23</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5925088317832128</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5242638813910191</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.5167429657138298</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E144" t="n">
         <v>23</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5707683995309761</v>
+        <v>0.3206229199284507</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5150025437418807</v>
+        <v>0.3409968006648125</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.5042628836884924</v>
+        <v>0.3383802794067368</v>
       </c>
       <c r="E145" t="n">
         <v>23</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8011525740405274</v>
+        <v>0.5948122597807362</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8484862556532808</v>
+        <v>0.2520550325031068</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.4011633462866436</v>
+        <v>0.1531327077161571</v>
       </c>
       <c r="E146" t="n">
         <v>23</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5724144564117352</v>
+        <v>0.3212042176768006</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.340418631644714</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.5059311940922924</v>
+        <v>0.3383771506784852</v>
       </c>
       <c r="E147" t="n">
         <v>23</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5724144584549297</v>
+        <v>0.3212042184432474</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5149802902784356</v>
+        <v>0.34041863092829</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.5059311960758911</v>
+        <v>0.3383771506284626</v>
       </c>
       <c r="E148" t="n">
         <v>23</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6481496738813008</v>
+        <v>0.4474531306790284</v>
       </c>
       <c r="C149" t="n">
-        <v>0.68464217527202</v>
+        <v>0.3115969906325347</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.4120045265090161</v>
+        <v>0.2409498786884368</v>
       </c>
       <c r="E149" t="n">
         <v>24</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8242600560058468</v>
+        <v>0.5785243351632039</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7849412470543531</v>
+        <v>0.241815761898757</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.4878158370538385</v>
+        <v>0.179659902938039</v>
       </c>
       <c r="E150" t="n">
         <v>24</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.659216389667926</v>
+        <v>0.4715601957162529</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7231136901907332</v>
+        <v>0.3084315745837141</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.3955552448050625</v>
+        <v>0.2200082297000329</v>
       </c>
       <c r="E151" t="n">
         <v>24</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E152" t="n">
         <v>24</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E153" t="n">
         <v>24</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6033803340790505</v>
+        <v>0.3777846984574095</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5919956174417544</v>
+        <v>0.3273991910556598</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.4618823393537748</v>
+        <v>0.2948161104869303</v>
       </c>
       <c r="E154" t="n">
         <v>24</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E155" t="n">
         <v>24</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E156" t="n">
         <v>24</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5724144583771291</v>
+        <v>0.321204218384534</v>
       </c>
       <c r="C157" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309544562</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.5059311960576862</v>
+        <v>0.3383771506610095</v>
       </c>
       <c r="E157" t="n">
         <v>24</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5724145842925658</v>
+        <v>0.32120432857551</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5149804161161994</v>
+        <v>0.3404185891777917</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383770822466982</v>
       </c>
       <c r="E158" t="n">
         <v>24</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5948475150811143</v>
+        <v>0.3423406548131319</v>
       </c>
       <c r="C159" t="n">
-        <v>0.5392239376638496</v>
+        <v>0.3327507648687554</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.5041206053166617</v>
+        <v>0.3249085803181126</v>
       </c>
       <c r="E159" t="n">
         <v>24</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5724144583949931</v>
+        <v>0.3212042183909669</v>
       </c>
       <c r="C160" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481823</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.5059311960755503</v>
+        <v>0.3383771506608507</v>
       </c>
       <c r="E160" t="n">
         <v>24</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5724144583952213</v>
+        <v>0.3212042183910568</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5149802902188549</v>
+        <v>0.3404186309481025</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608406</v>
       </c>
       <c r="E161" t="n">
         <v>24</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.5675100661570613</v>
+        <v>0.3192309830636355</v>
       </c>
       <c r="C162" t="n">
-        <v>0.5145735185939792</v>
+        <v>0.342128328434544</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.5014335754624543</v>
+        <v>0.3386406885018207</v>
       </c>
       <c r="E162" t="n">
         <v>24</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.5724144583952672</v>
+        <v>0.321204218391097</v>
       </c>
       <c r="C163" t="n">
-        <v>0.5149802902189008</v>
+        <v>0.3404186309480873</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608156</v>
       </c>
       <c r="E163" t="n">
         <v>24</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C164" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E164" t="n">
         <v>24</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.5714993587945665</v>
+        <v>0.3208747170878536</v>
       </c>
       <c r="C165" t="n">
-        <v>0.514980325343693</v>
+        <v>0.3407398987359454</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.5050160613502704</v>
+        <v>0.338385384176201</v>
       </c>
       <c r="E165" t="n">
         <v>24</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.5760511664468885</v>
+        <v>0.3244013874579055</v>
       </c>
       <c r="C166" t="n">
-        <v>0.5186169982705234</v>
+        <v>0.3392051215363753</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.505931196075762</v>
+        <v>0.3363934910057192</v>
       </c>
       <c r="E166" t="n">
         <v>24</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.591857289055385</v>
+        <v>0.3265094577275234</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5118185266102796</v>
+        <v>0.3335238051817856</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.5285389359755357</v>
+        <v>0.339966737090691</v>
       </c>
       <c r="E167" t="n">
         <v>24</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.650914794416438</v>
+        <v>0.3799655999443122</v>
       </c>
       <c r="C168" t="n">
-        <v>0.5663543914214545</v>
+        <v>0.3112037947704308</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.5318342472524428</v>
+        <v>0.3088306052852568</v>
       </c>
       <c r="E168" t="n">
         <v>24</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.5695907471703078</v>
+        <v>0.3202323812544327</v>
       </c>
       <c r="C169" t="n">
-        <v>0.515067992873641</v>
+        <v>0.3414110480502038</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.5030197821955517</v>
+        <v>0.3383565706953636</v>
       </c>
       <c r="E169" t="n">
         <v>24</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C170" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E170" t="n">
         <v>25</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.5275073170510334</v>
+        <v>0.2883588186824113</v>
       </c>
       <c r="C171" t="n">
-        <v>0.4790909171752525</v>
+        <v>0.3544703530480048</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.4969134277751778</v>
+        <v>0.357170828269584</v>
       </c>
       <c r="E171" t="n">
         <v>25</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.7969253547106038</v>
+        <v>0.5845346205141765</v>
       </c>
       <c r="C172" t="n">
-        <v>0.8277733378351039</v>
+        <v>0.2536510820509961</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.4156423207858664</v>
+        <v>0.1618142974348271</v>
       </c>
       <c r="E172" t="n">
         <v>25</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.5716857908629914</v>
+        <v>0.3209410144729958</v>
       </c>
       <c r="C173" t="n">
-        <v>0.514978703397611</v>
+        <v>0.3406744347999565</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.5052041153647714</v>
+        <v>0.3383845507270478</v>
       </c>
       <c r="E173" t="n">
         <v>25</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.6389927554667869</v>
+        <v>0.4359975728499596</v>
       </c>
       <c r="C174" t="n">
-        <v>0.6703893252055039</v>
+        <v>0.3148146361247278</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.417453383840871</v>
+        <v>0.2491877910253125</v>
       </c>
       <c r="E174" t="n">
         <v>25</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8624688849623775</v>
+        <v>0.6392750747101561</v>
       </c>
       <c r="C175" t="n">
-        <v>0.8880669880114487</v>
+        <v>0.227885453819552</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.5329693194633147</v>
+        <v>0.1328394714702918</v>
       </c>
       <c r="E175" t="n">
         <v>25</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.804099293613858</v>
+        <v>0.5794787676070471</v>
       </c>
       <c r="C176" t="n">
-        <v>0.8079234588251849</v>
+        <v>0.2506567464219288</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.4417851780518693</v>
+        <v>0.1698644859710243</v>
       </c>
       <c r="E176" t="n">
         <v>25</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.9226033749919583</v>
+        <v>0.6885339062201907</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9497778851000864</v>
+        <v>0.2021318867004177</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.3834387234462481</v>
+        <v>0.1093342070793918</v>
       </c>
       <c r="E177" t="n">
         <v>25</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.016597355299758</v>
+        <v>0.7488408998703604</v>
       </c>
       <c r="C178" t="n">
-        <v>1.017961526366114</v>
+        <v>0.166884631419627</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.4961574139251822</v>
+        <v>0.08427446871001264</v>
       </c>
       <c r="E178" t="n">
         <v>25</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.7722189122122813</v>
+        <v>0.4985993040972728</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6828091120864564</v>
+        <v>0.264805373866313</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.5500173480070629</v>
+        <v>0.2365953220364142</v>
       </c>
       <c r="E179" t="n">
         <v>25</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.5573432092736839</v>
+        <v>0.3107485757705433</v>
       </c>
       <c r="C180" t="n">
-        <v>0.504894014673142</v>
+        <v>0.3454109872483377</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.5010210161012262</v>
+        <v>0.3438404369811189</v>
       </c>
       <c r="E180" t="n">
         <v>25</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.7557239872693383</v>
+        <v>0.5098359089830078</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7111398379335802</v>
+        <v>0.2689128189948097</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.4930809904076549</v>
+        <v>0.2212512720221825</v>
       </c>
       <c r="E181" t="n">
         <v>25</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.8026239870847245</v>
+        <v>0.5759281091937674</v>
       </c>
       <c r="C182" t="n">
-        <v>0.8016014591209765</v>
+        <v>0.2512866798108437</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.4491112860297543</v>
+        <v>0.1727852109953891</v>
       </c>
       <c r="E182" t="n">
         <v>25</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.9404116561721216</v>
+        <v>0.7105983831612503</v>
       </c>
       <c r="C183" t="n">
-        <v>1.000160287233936</v>
+        <v>0.1944384600978379</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.3063782142332766</v>
+        <v>0.09496315674091188</v>
       </c>
       <c r="E183" t="n">
         <v>25</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.7949001701103591</v>
+        <v>0.3861027823184612</v>
       </c>
       <c r="C184" t="n">
-        <v>0.5124123096985791</v>
+        <v>0.2726933533526338</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.8510596180965414</v>
+        <v>0.341203864328905</v>
       </c>
       <c r="E184" t="n">
         <v>25</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.7438115648924677</v>
+        <v>0.5398288082971112</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7837254093130649</v>
+        <v>0.2751612376940871</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.4068349472642922</v>
+        <v>0.1850099540088018</v>
       </c>
       <c r="E185" t="n">
         <v>25</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.8519015475078946</v>
+        <v>0.6295387260366919</v>
       </c>
       <c r="C186" t="n">
-        <v>0.8744971998748219</v>
+        <v>0.231167878521571</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.4257840861116547</v>
+        <v>0.1392933954417369</v>
       </c>
       <c r="E186" t="n">
         <v>25</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.6138205959281275</v>
+        <v>0.3559132736582709</v>
       </c>
       <c r="C187" t="n">
-        <v>0.5504674992683313</v>
+        <v>0.3257281106285488</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.5118501245591928</v>
+        <v>0.3183586157131801</v>
       </c>
       <c r="E187" t="n">
         <v>25</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.6251953725486261</v>
+        <v>0.4346143291838507</v>
       </c>
       <c r="C188" t="n">
-        <v>0.679264347535139</v>
+        <v>0.3202378585418</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.3935766365706667</v>
+        <v>0.2451478122743493</v>
       </c>
       <c r="E188" t="n">
         <v>25</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.5762495407506085</v>
+        <v>0.3247297752476378</v>
       </c>
       <c r="C189" t="n">
-        <v>0.5191103548115709</v>
+        <v>0.3391442051250445</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.5056362132551034</v>
+        <v>0.3361260196273177</v>
       </c>
       <c r="E189" t="n">
         <v>25</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.4873913239348666</v>
+        <v>0.2679281537613565</v>
       </c>
       <c r="C190" t="n">
-        <v>0.4668152845953791</v>
+        <v>0.3685419681133595</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.4691126941820659</v>
+        <v>0.363529878125284</v>
       </c>
       <c r="E190" t="n">
         <v>25</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9553243115496223</v>
+        <v>0.7093893900923151</v>
       </c>
       <c r="C191" t="n">
-        <v>0.970178787292696</v>
+        <v>0.1898661570011964</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.4643757165360848</v>
+        <v>0.1007444529064885</v>
       </c>
       <c r="E191" t="n">
         <v>25</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.6066649403523433</v>
+        <v>0.3605803428713928</v>
       </c>
       <c r="C192" t="n">
-        <v>0.5643022885892193</v>
+        <v>0.3288224483798745</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.4913303507254576</v>
+        <v>0.3105972087487325</v>
       </c>
       <c r="E192" t="n">
         <v>25</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.5724146404384376</v>
+        <v>0.3212043777139856</v>
       </c>
       <c r="C193" t="n">
-        <v>0.5149804722620712</v>
+        <v>0.3404185705496691</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383770517363454</v>
       </c>
       <c r="E193" t="n">
         <v>26</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.7830667644982781</v>
+        <v>0.565836854268623</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7996976352219949</v>
+        <v>0.2591014290652798</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.4216143699703234</v>
+        <v>0.1750617166660971</v>
       </c>
       <c r="E194" t="n">
         <v>26</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4392545756338941</v>
+        <v>0.1919043131998338</v>
       </c>
       <c r="C195" t="n">
-        <v>0.3288656175296582</v>
+        <v>0.3921630300199698</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.5397771943922941</v>
+        <v>0.4159326567801961</v>
       </c>
       <c r="E195" t="n">
         <v>26</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7841487918014801</v>
+        <v>0.5355087480935552</v>
       </c>
       <c r="C196" t="n">
-        <v>0.7344248779678026</v>
+        <v>0.2573606279616138</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.5179997185207783</v>
+        <v>0.207130623944831</v>
       </c>
       <c r="E196" t="n">
         <v>26</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8321728557727575</v>
+        <v>0.5971114729354852</v>
       </c>
       <c r="C197" t="n">
-        <v>0.8231439182646798</v>
+        <v>0.2411250928193698</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.4575136826977719</v>
+        <v>0.161763434245145</v>
       </c>
       <c r="E197" t="n">
         <v>26</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.5338508536433197</v>
+        <v>0.2045649774379528</v>
       </c>
       <c r="C198" t="n">
-        <v>0.3080498368539031</v>
+        <v>0.3722513413995511</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.6743533841874187</v>
+        <v>0.4231836811624963</v>
       </c>
       <c r="E198" t="n">
         <v>26</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9271765526516209</v>
+        <v>0.5563196700324421</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6841399434454047</v>
+        <v>0.2131128444688443</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.9025109530042273</v>
+        <v>0.2305674854987133</v>
       </c>
       <c r="E199" t="n">
         <v>26</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.070667300310656</v>
+        <v>0.7863634830521729</v>
       </c>
       <c r="C200" t="n">
-        <v>1.08784430787112</v>
+        <v>0.1465572212306425</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.3389324214754325</v>
+        <v>0.06707929571718477</v>
       </c>
       <c r="E200" t="n">
         <v>26</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.881083149426108</v>
+        <v>0.6635007773086352</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9335891253416785</v>
+        <v>0.2192861241702227</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.4119084236390576</v>
+        <v>0.1172130985211418</v>
       </c>
       <c r="E201" t="n">
         <v>26</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9063221984734557</v>
+        <v>0.680349977031382</v>
       </c>
       <c r="C202" t="n">
-        <v>0.948739979861039</v>
+        <v>0.208871397907144</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.4037797783663854</v>
+        <v>0.1107786250614736</v>
       </c>
       <c r="E202" t="n">
         <v>26</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.9060172099309662</v>
+        <v>0.6451384539587192</v>
       </c>
       <c r="C203" t="n">
-        <v>0.850974190792591</v>
+        <v>0.209224817658767</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.5035400839478177</v>
+        <v>0.145636728382514</v>
       </c>
       <c r="E203" t="n">
         <v>26</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.6020455002693595</v>
+        <v>0.3149043130629379</v>
       </c>
       <c r="C204" t="n">
-        <v>0.4889876346262</v>
+        <v>0.3330170294757444</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.5644885269563984</v>
+        <v>0.3520786574613178</v>
       </c>
       <c r="E204" t="n">
         <v>26</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.8480354470708948</v>
+        <v>0.6308073855665672</v>
       </c>
       <c r="C205" t="n">
-        <v>0.8822794122745352</v>
+        <v>0.2316289293863406</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.3026800393329848</v>
+        <v>0.137563685047092</v>
       </c>
       <c r="E205" t="n">
         <v>26</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.5724145365039548</v>
+        <v>0.3212042867683969</v>
       </c>
       <c r="C206" t="n">
-        <v>0.5149803683608649</v>
+        <v>0.3404186050337796</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.5059311960424868</v>
+        <v>0.3383771081978236</v>
       </c>
       <c r="E206" t="n">
         <v>26</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.9500043555677735</v>
+        <v>0.7122373734084884</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9914986415473754</v>
+        <v>0.1925698001015472</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.5546138781764197</v>
+        <v>0.09519282648996429</v>
       </c>
       <c r="E207" t="n">
         <v>26</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.7551997829344028</v>
+        <v>0.4549731884870371</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6252240767446682</v>
+        <v>0.2742930420570255</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.6622383909400518</v>
+        <v>0.2707337694559374</v>
       </c>
       <c r="E208" t="n">
         <v>26</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.021292611504097</v>
+        <v>0.747504163568853</v>
       </c>
       <c r="C209" t="n">
-        <v>1.004419097583626</v>
+        <v>0.1653196731051089</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.4915592723619903</v>
+        <v>0.08717616332603804</v>
       </c>
       <c r="E209" t="n">
         <v>26</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.5724195048551169</v>
+        <v>0.3212082229526411</v>
       </c>
       <c r="C210" t="n">
-        <v>0.5149845366585226</v>
+        <v>0.3404169410769994</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.5059319960959913</v>
+        <v>0.3383748359703596</v>
       </c>
       <c r="E210" t="n">
         <v>26</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910349</v>
       </c>
       <c r="C211" t="n">
-        <v>0.5149802902188229</v>
+        <v>0.3404186309481072</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.5059311960757802</v>
+        <v>0.3383771506608578</v>
       </c>
       <c r="E211" t="n">
         <v>26</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.5724144583965459</v>
+        <v>0.3212042183918221</v>
       </c>
       <c r="C212" t="n">
-        <v>0.5149802902194145</v>
+        <v>0.3404186309476482</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.5059311960765284</v>
+        <v>0.3383771506605296</v>
       </c>
       <c r="E212" t="n">
         <v>26</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.7808858470040615</v>
+        <v>0.5034609431954242</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6850764501745481</v>
+        <v>0.2619081562655496</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.5843643421041906</v>
+        <v>0.2346309005390264</v>
       </c>
       <c r="E213" t="n">
         <v>26</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.604859038733934</v>
+        <v>0.335229984300954</v>
       </c>
       <c r="C214" t="n">
-        <v>0.5192710533775072</v>
+        <v>0.3289183664021916</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.5353330108370196</v>
+        <v>0.3358516492968544</v>
       </c>
       <c r="E214" t="n">
         <v>26</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5827664932128558</v>
+        <v>0.3488122099311727</v>
       </c>
       <c r="C215" t="n">
-        <v>0.5553836052402795</v>
+        <v>0.3351301750733553</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.4769989447704259</v>
+        <v>0.3160576149954718</v>
       </c>
       <c r="E215" t="n">
         <v>26</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.6888656399541562</v>
+        <v>0.4890992448327922</v>
       </c>
       <c r="C216" t="n">
-        <v>0.7308573291707399</v>
+        <v>0.2966275190189091</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.4085803102057106</v>
+        <v>0.2142732361482985</v>
       </c>
       <c r="E216" t="n">
         <v>27</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.5897065465357586</v>
+        <v>0.3455668522094268</v>
       </c>
       <c r="C217" t="n">
-        <v>0.5490662890945568</v>
+        <v>0.3349297993944161</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.4891372853405987</v>
+        <v>0.319503348396157</v>
       </c>
       <c r="E217" t="n">
         <v>27</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.6861376900256051</v>
+        <v>0.3330793722237188</v>
       </c>
       <c r="C218" t="n">
-        <v>0.4796064287247798</v>
+        <v>0.3080098186653322</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.6550282892012437</v>
+        <v>0.3589108091109489</v>
       </c>
       <c r="E218" t="n">
         <v>27</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.5826673207880014</v>
+        <v>0.3629012000925944</v>
       </c>
       <c r="C219" t="n">
-        <v>0.5795682366445806</v>
+        <v>0.3350992263498945</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.4764030887647354</v>
+        <v>0.3019995735575109</v>
       </c>
       <c r="E219" t="n">
         <v>27</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.07964823806385296</v>
+        <v>0.05971940154753486</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.03740616539140684</v>
+        <v>0.4811073173327747</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.5678361526564645</v>
+        <v>0.4591732811196905</v>
       </c>
       <c r="E220" t="n">
         <v>27</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.5881968825058137</v>
+        <v>0.3352929759773747</v>
       </c>
       <c r="C221" t="n">
-        <v>0.5307827570689705</v>
+        <v>0.3350537176708369</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.5059111533362403</v>
+        <v>0.3296533063517884</v>
       </c>
       <c r="E221" t="n">
         <v>27</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.6474319364273942</v>
+        <v>0.3563371958937073</v>
       </c>
       <c r="C222" t="n">
-        <v>0.5289280810044037</v>
+        <v>0.313100421410031</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.5670008833223874</v>
+        <v>0.3305623826962615</v>
       </c>
       <c r="E222" t="n">
         <v>27</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.5497124043979007</v>
+        <v>0.3204385303006524</v>
       </c>
       <c r="C223" t="n">
-        <v>0.5300683127757362</v>
+        <v>0.3489123311899607</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.4681411195215615</v>
+        <v>0.3306491385093869</v>
       </c>
       <c r="E223" t="n">
         <v>27</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.5461816361486519</v>
+        <v>0.290474057303295</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4759635494762621</v>
+        <v>0.3509784528304273</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.5208381191037667</v>
+        <v>0.3585474898662775</v>
       </c>
       <c r="E224" t="n">
         <v>27</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.7335688559273525</v>
+        <v>0.434226804094089</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6060843681920794</v>
+        <v>0.2816098859451997</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.5759815156346699</v>
+        <v>0.2841633099607114</v>
       </c>
       <c r="E225" t="n">
         <v>27</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.5884684438487482</v>
+        <v>0.3265147069813715</v>
       </c>
       <c r="C226" t="n">
-        <v>0.5140957947829244</v>
+        <v>0.334731405991312</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.5226237418200284</v>
+        <v>0.3387538870273165</v>
       </c>
       <c r="E226" t="n">
         <v>27</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.3494071705558649</v>
+        <v>0.137241140553202</v>
       </c>
       <c r="C227" t="n">
-        <v>0.2146354694271146</v>
+        <v>0.424472696019051</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.5816172153881296</v>
+        <v>0.4382861634277469</v>
       </c>
       <c r="E227" t="n">
         <v>27</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5725216514260458</v>
+        <v>0.319566618037301</v>
       </c>
       <c r="C228" t="n">
-        <v>0.5117263847155854</v>
+        <v>0.3403212339607302</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.5092922946098574</v>
+        <v>0.3401121480019689</v>
       </c>
       <c r="E228" t="n">
         <v>27</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.5724144624465125</v>
+        <v>0.3212042220478494</v>
       </c>
       <c r="C229" t="n">
-        <v>0.5149802944858967</v>
+        <v>0.3404186296081535</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.5059311958600128</v>
+        <v>0.338377148343997</v>
       </c>
       <c r="E229" t="n">
         <v>27</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0.64110138156998</v>
+        <v>0.3918528250408683</v>
       </c>
       <c r="C230" t="n">
-        <v>0.5943903133790236</v>
+        <v>0.3156235501245784</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.4952080960903533</v>
+        <v>0.2925236248345533</v>
       </c>
       <c r="E230" t="n">
         <v>27</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0.598070641365187</v>
+        <v>0.3467200939102509</v>
       </c>
       <c r="C231" t="n">
-        <v>0.5450321113592965</v>
+        <v>0.3316545658791042</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.5015355579052874</v>
+        <v>0.3216253402106447</v>
       </c>
       <c r="E231" t="n">
         <v>27</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0.4348291968449395</v>
+        <v>0.1407633562021623</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1597289369504342</v>
+        <v>0.4152428680519873</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.763650655007385</v>
+        <v>0.4439937757458503</v>
       </c>
       <c r="E232" t="n">
         <v>27</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0.6818734597737485</v>
+        <v>0.4214494837273918</v>
       </c>
       <c r="C233" t="n">
-        <v>0.61428575277718</v>
+        <v>0.2986522426918335</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.5154468166235515</v>
+        <v>0.2798982735807746</v>
       </c>
       <c r="E233" t="n">
         <v>27</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0.6966373438154889</v>
+        <v>0.3489647119559669</v>
       </c>
       <c r="C234" t="n">
-        <v>0.498865583746588</v>
+        <v>0.3026185916919022</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.6493346574272296</v>
+        <v>0.348416696352131</v>
       </c>
       <c r="E234" t="n">
         <v>27</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0.5972200134416307</v>
+        <v>0.2969894536950892</v>
       </c>
       <c r="C235" t="n">
-        <v>0.4617612171227486</v>
+        <v>0.3369243680574778</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.5802933388011988</v>
+        <v>0.3660861782474327</v>
       </c>
       <c r="E235" t="n">
         <v>27</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.5724144547975888</v>
+        <v>0.3212042171095416</v>
       </c>
       <c r="C236" t="n">
-        <v>0.5149802902460017</v>
+        <v>0.3404186322121392</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.5059311924509841</v>
+        <v>0.3383771506783192</v>
       </c>
       <c r="E236" t="n">
         <v>27</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.5724144583952122</v>
+        <v>0.321204218391049</v>
       </c>
       <c r="C237" t="n">
-        <v>0.5149802902188458</v>
+        <v>0.3404186309481056</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608455</v>
       </c>
       <c r="E237" t="n">
         <v>27</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.5724144583952322</v>
+        <v>0.3212042183910664</v>
       </c>
       <c r="C238" t="n">
-        <v>0.5149802902188658</v>
+        <v>0.3404186309480989</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608347</v>
       </c>
       <c r="E238" t="n">
         <v>27</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.5762319508322147</v>
+        <v>0.3260902913066345</v>
       </c>
       <c r="C239" t="n">
-        <v>0.5217431810462189</v>
+        <v>0.3392035427985229</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.5029857976853928</v>
+        <v>0.3347061658948425</v>
       </c>
       <c r="E239" t="n">
         <v>27</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.6460242470256438</v>
+        <v>0.3550748562680109</v>
       </c>
       <c r="C240" t="n">
-        <v>0.527642474375585</v>
+        <v>0.313478691792924</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.5598932271161413</v>
+        <v>0.331446451939065</v>
       </c>
       <c r="E240" t="n">
         <v>27</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C241" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E241" t="n">
         <v>27</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.5724144583952061</v>
+        <v>0.3212042183910436</v>
       </c>
       <c r="C242" t="n">
-        <v>0.5149802902188397</v>
+        <v>0.3404186309481075</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.5059311960757633</v>
+        <v>0.3383771506608488</v>
       </c>
       <c r="E242" t="n">
         <v>27</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.5585176455399204</v>
+        <v>0.3310824372507892</v>
       </c>
       <c r="C243" t="n">
-        <v>0.539359881830655</v>
+        <v>0.3434942393554102</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.4676547916086624</v>
+        <v>0.3254233233938004</v>
       </c>
       <c r="E243" t="n">
         <v>27</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.5647747349858351</v>
+        <v>0.3430951747279344</v>
       </c>
       <c r="C244" t="n">
-        <v>0.5563972696682673</v>
+        <v>0.340969389123117</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.4568744932169647</v>
+        <v>0.3159354361489485</v>
       </c>
       <c r="E244" t="n">
         <v>27</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0.5386611802711879</v>
+        <v>0.2716984922150324</v>
       </c>
       <c r="C245" t="n">
-        <v>0.4465403730340439</v>
+        <v>0.355697129919765</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.5406179610061926</v>
+        <v>0.3726043778652025</v>
       </c>
       <c r="E245" t="n">
         <v>27</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.7182962576999982</v>
+        <v>0.4522182375783794</v>
       </c>
       <c r="C246" t="n">
-        <v>0.6423781362388503</v>
+        <v>0.2855161929199678</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.5244151493605449</v>
+        <v>0.2622655695016529</v>
       </c>
       <c r="E246" t="n">
         <v>27</v>
